--- a/public/Medicinal Product 03-02-22.xlsx
+++ b/public/Medicinal Product 03-02-22.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Procedure Type</t>
   </si>
@@ -50,9 +50,6 @@
     <t>National</t>
   </si>
   <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
     <t>Finished</t>
   </si>
   <si>
@@ -80,16 +77,13 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>ghgv</t>
-  </si>
-  <si>
-    <t>ALUSTAL</t>
+    <t>STG 320</t>
   </si>
   <si>
     <t>mpop</t>
   </si>
   <si>
-    <t>Agency for medicinal products and medical devices of Croatia (HALMED) - Zagreb - Croatia</t>
+    <t>ABDULREHMAN ALGOSAIBI GTC - Riyadh - Saudi Arabia</t>
   </si>
   <si>
     <t>Authorized Pharmaceutical Form</t>
@@ -104,16 +98,13 @@
     <t>ATC</t>
   </si>
   <si>
-    <t>Eye drops</t>
-  </si>
-  <si>
-    <t>Same as authorised pharmaceutical form</t>
+    <t>Powder</t>
   </si>
   <si>
     <t>Cutaneous use</t>
   </si>
   <si>
-    <t>V01A - Allergens</t>
+    <t>V01 - Allergens</t>
   </si>
   <si>
     <t>Orphan Designation Status</t>
@@ -122,12 +113,6 @@
     <t>Orphan Indication Type</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Diagnostic</t>
-  </si>
-  <si>
     <t>Under Intensive Monitoring</t>
   </si>
   <si>
@@ -143,24 +128,12 @@
     <t>Alternate Number</t>
   </si>
   <si>
-    <t>NR : Date of Inventory (STG Inventory FORM)</t>
-  </si>
-  <si>
-    <t>04-03-2022</t>
-  </si>
-  <si>
-    <t>ddddd</t>
-  </si>
-  <si>
-    <t>jbhjkbhjb</t>
+    <t>01-01-1970</t>
   </si>
   <si>
     <t>Local Agent Company</t>
   </si>
   <si>
-    <t>Aerocrine AB - Solna - Sweden</t>
-  </si>
-  <si>
     <t>Ingredient</t>
   </si>
   <si>
@@ -179,18 +152,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>ACARUS SIRO</t>
-  </si>
-  <si>
-    <t>ACACIA DEALBATA LINK.</t>
-  </si>
-  <si>
-    <t>IC</t>
-  </si>
-  <si>
-    <t>Excipient</t>
-  </si>
-  <si>
     <t>Packaging Type</t>
   </si>
   <si>
@@ -227,36 +188,12 @@
     <t>Package Storage Condition</t>
   </si>
   <si>
-    <t>Applicator</t>
-  </si>
-  <si>
     <t>fgr</t>
   </si>
   <si>
     <t>gfhgdh</t>
   </si>
   <si>
-    <t>01-03-2022</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>27-02-2022</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Atmospheric pressure limitation</t>
-  </si>
-  <si>
-    <t>Avoid direct sunlight</t>
-  </si>
-  <si>
     <t>Indications</t>
   </si>
   <si>
@@ -266,7 +203,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>10056352 - Allergy Test Positive</t>
+    <t>10001709 - Allergic Conjunctivitis</t>
   </si>
   <si>
     <t>Manufacturer</t>
@@ -275,9 +212,6 @@
     <t>Operation Type</t>
   </si>
   <si>
-    <t>ABDULREHMAN ALGOSAIBI GTC - Riyadh - Saudi Arabia</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -293,13 +227,10 @@
     <t>Internal Submission Reference</t>
   </si>
   <si>
-    <t>Application / Withdrawn by MAH not due Safety/Efficacy</t>
-  </si>
-  <si>
-    <t>30-01-2022</t>
-  </si>
-  <si>
-    <t>jhghfghfhtgdrds</t>
+    <t>Application / Submitted</t>
+  </si>
+  <si>
+    <t>03-01-2022</t>
   </si>
   <si>
     <t>Document type</t>
@@ -694,17 +625,11 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -738,24 +663,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -789,16 +708,14 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -821,7 +738,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -829,47 +746,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -903,22 +808,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -952,42 +857,36 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -1021,37 +920,28 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="D4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1075,7 +965,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -1085,18 +975,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1120,7 +1002,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -1130,12 +1012,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1169,43 +1046,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A2"/>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1228,7 +1095,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -1238,12 +1105,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1129,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -1277,42 +1139,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1178,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -1346,88 +1188,68 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A2"/>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G2"/>
       <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I2"/>
       <c r="J2"/>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="M3" t="s">
-        <v>75</v>
-      </c>
+      <c r="K2"/>
+      <c r="L2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
